--- a/mapping/mml_facility_mapping.xlsx
+++ b/mapping/mml_facility_mapping.xlsx
@@ -171,7 +171,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -198,16 +198,9 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -222,14 +215,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -241,7 +231,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -547,16 +537,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="3" width="13.625" customWidth="1"/>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="9.5" customWidth="1"/>
     <col min="5" max="5" width="13.375" customWidth="1"/>
-    <col min="8" max="8" width="21.25" customWidth="1"/>
+    <col min="8" max="8" width="23.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
@@ -598,7 +589,7 @@
       <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -613,7 +604,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="H4" s="4"/>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
@@ -630,7 +621,7 @@
         <v>9</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -649,7 +640,7 @@
       <c r="F6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -666,7 +657,7 @@
         <v>14</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="H7" s="4"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
@@ -683,7 +674,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="1"/>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -697,14 +688,14 @@
       <c r="E9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="3" t="s">
+      <c r="G9" s="3"/>
+      <c r="H9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="4"/>
+      <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C10" s="1" t="s">
@@ -718,7 +709,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C11" s="1" t="s">
         <v>28</v>
       </c>
@@ -733,7 +724,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C12" s="1" t="s">
         <v>30</v>
       </c>

--- a/mapping/mml_facility_mapping.xlsx
+++ b/mapping/mml_facility_mapping.xlsx
@@ -134,11 +134,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Identifier chedi digit schema</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>HL7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Identifier check digit schema</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -163,12 +163,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -215,7 +221,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -232,6 +238,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -538,7 +547,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L14"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -558,7 +567,7 @@
         <v>20</v>
       </c>
       <c r="J1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
@@ -640,7 +649,7 @@
       <c r="F6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -692,7 +701,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="3"/>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="6" t="s">
         <v>33</v>
       </c>
       <c r="I9" s="3"/>
@@ -720,11 +729,11 @@
         <v>14</v>
       </c>
       <c r="F11" s="1"/>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="C12" s="1" t="s">
         <v>30</v>
       </c>
@@ -737,8 +746,8 @@
       <c r="F12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>35</v>
+      <c r="H12" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">

--- a/mapping/mml_facility_mapping.xlsx
+++ b/mapping/mml_facility_mapping.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="53">
   <si>
     <t>Elements</t>
   </si>
@@ -134,11 +134,81 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>HL7</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Identifier check digit schema</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>data type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>path</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_CODED_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0.15]/defining_code/code_string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0001]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0.15]/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_IDENTIFIER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0011.1]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0.12]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0.12]/mappings/target/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0.12]/mappings/match</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*)値は"="で固定</t>
+    <rPh sb="2" eb="3">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_QUANTIFIER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0.13]/magnitude</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0.14]/value</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -221,7 +291,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -242,6 +312,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -544,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -556,32 +629,28 @@
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="9.5" customWidth="1"/>
     <col min="5" max="5" width="13.375" customWidth="1"/>
-    <col min="8" max="8" width="23.25" customWidth="1"/>
+    <col min="8" max="8" width="13.25" customWidth="1"/>
+    <col min="9" max="9" width="24" customWidth="1"/>
+    <col min="10" max="10" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>18</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>19</v>
       </c>
       <c r="H2" t="s">
         <v>24</v>
       </c>
-      <c r="J2">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -598,11 +667,17 @@
       <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>6</v>
       </c>
@@ -613,9 +688,9 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -630,11 +705,17 @@
         <v>9</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
@@ -649,11 +730,17 @@
       <c r="F6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="I6" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
@@ -666,9 +753,12 @@
         <v>14</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I7" s="3"/>
+      <c r="K7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -683,11 +773,17 @@
         <v>17</v>
       </c>
       <c r="F8" s="1"/>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C9" s="1" t="s">
         <v>26</v>
       </c>
@@ -701,12 +797,17 @@
         <v>12</v>
       </c>
       <c r="G9" s="3"/>
-      <c r="H9" s="6" t="s">
+      <c r="I9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C10" s="1" t="s">
         <v>27</v>
       </c>
@@ -717,41 +818,68 @@
         <v>11</v>
       </c>
       <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="C11" s="1" t="s">
+      <c r="K10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="J11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="H11" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="C12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="1"/>
+      <c r="I12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="H14" t="s">
+      <c r="I13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="H15" t="s">
         <v>23</v>
       </c>
     </row>
